--- a/네이버증권.xlsx
+++ b/네이버증권.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA_Lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2350A6-D03C-4B55-95CD-FBC207738C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352908DD-5377-4478-A8EA-DB0181897F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -16,7 +16,7 @@
     <x:sheet name="코스피" sheetId="2" r:id="rId1"/>
     <x:sheet name="필터된 코스피" sheetId="5" r:id="rId2"/>
     <x:sheet name="필터된 코스닥111727" sheetId="6" r:id="rId3"/>
-    <x:sheet name="필터된 코스닥122649" sheetId="7" r:id="rId7"/>
+    <x:sheet name="코스닥_가공완료" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="1067">
   <x:si>
     <x:t>순위</x:t>
   </x:si>
@@ -2606,1450 +2606,663 @@
     <x:t>540,943</x:t>
   </x:si>
   <x:si>
-    <x:t>우리기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=032820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+12.80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123,939,232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디알텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=214680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+25.50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,795,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SDN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=099220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+6.73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28,692,422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=145170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45,300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+223.57%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,576,908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한선엔지니어링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=452280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+19.70%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,914,701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙첨단소재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=051980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+16.47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,108,399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LS머트리얼즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=417200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+15.83%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,043,148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=028300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51,400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,085,969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유니테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=086390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,867,318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보성파워텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=006910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.18%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,849,469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더블유에스아이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=299170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,706,579</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이오플로우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=294090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4.96%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,690,565</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SM C&amp;C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=048550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,439,013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감성코퍼레이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=036620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+7.89%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,739,152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>와이씨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=232140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,412,020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폴라리스AI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=039980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-9.63%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,527,567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이루다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=164060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+15.85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,513,741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대성창투</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=027830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,757,987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TS트릴리온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=317240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+9.73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,747,930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에스코넥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=096630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+7.32%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,399,397</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=323280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+8.24%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,088,632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로보로보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=215100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,976,105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폴라리스오피스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=041020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6.04%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,952,679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBI메탈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=024840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-9.88%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,811,731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스카이문스테크놀로지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=033790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+5.48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,431,338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에스에너지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=095910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+5.84%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,350,705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB바이오스텝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=278650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,246,917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박셀바이오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=323990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-14.48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,094,911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오가닉티코스메틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=900300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,954,942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB테라퓨틱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=115450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+5.64%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,923,315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB생명과학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=067630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,697,396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=027580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,920</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-5.42%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,606,958</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금양그린파워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=282720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+4.03%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,288,154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HB솔루션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=297890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+4.91%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,234,783</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지에스이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=053050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.81%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,183,974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본느</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=226340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,149,718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대명에너지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=389260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+15.73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,122,742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윙입푸드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=900340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.97%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,097,030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB제약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=047920</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.21%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,051,653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=029480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,905,651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글과컴퓨터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=030520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29,850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.58%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,729,530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐라클</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=365270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-19.09%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,722,741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MDS테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=086960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,722,710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>씨씨에스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=066790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.98%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,678,948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HB테크놀러지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=078150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.59%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,673,352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>싸이버원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=356890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+10.23%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,664,890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국선재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=025550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,394,562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판타지오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=032800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.92%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,325,833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이스트아시아홀딩스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=900110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.08%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,301,904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LB인베스트먼트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=309960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,251,649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유니슨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=018000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.46%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,155,117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지투파워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=388050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,134,948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘컴텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=037950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4.88%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,114,803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에이팩트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=200470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+5.47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,061,781</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선진뷰티사이언스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=086710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+7.51%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,975,332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우진엔텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=457550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,951,867</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제이시스메디칼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=287410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-5.49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,927,539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리바이오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=082850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,923,798</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시노펙스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=025320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,723,998</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엠에프엠코리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=323230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-8.79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,717,884</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=059090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.13%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,716,596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비아이매트릭스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=413640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,610</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-2.93%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,556,677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=103840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,535,236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블레이드 Ent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=044480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-7.86%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,498,550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모베이스전자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=012860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.62%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,455,890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원티드랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=376980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+9.34%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,452,523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성호전자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=043260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,432,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세경하이테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=148150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,422,060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비에이치아이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=083650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.38%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,392,833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서진시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=178320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29,750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+6.82%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,385,396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LS마린솔루션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=060370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-3.74%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,370,123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑스플러스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=373200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,675</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-5.37%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,314,396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저쎌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=412350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.82%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,264,315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLB이노베이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=024850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.94%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,260,591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이톡시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=052770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+8.40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,257,855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바이오스마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=038460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-5.10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,255,543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클리노믹스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=352770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,251,024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덕산하이메탈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=077360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+7.74%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,242,628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에이텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=045660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+16.53%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,239,062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비투엔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=307870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,582</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+6.89%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,235,504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔젤로보틱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=455900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38,200</x:t>
+    <x:t>전일비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매수호가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,595,182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.67%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,376,186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+0.13%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,660,620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+0.49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,241,869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 400</x:t>
   </x:si>
   <x:si>
     <x:t>+1.60%</x:t>
   </x:si>
   <x:si>
-    <x:t>1,194,651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리기술투자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=041190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,980</x:t>
+    <x:t>14,399,622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 3,450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,358,682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+0.54%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,982,260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,883,973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,867,682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 2,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1.16%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,662,833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+2.53%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,433,118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보합
+0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,890,087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.57%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,763,954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 1,940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+14.08%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,279,426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.61%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,156,161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,105,355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 4,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-11.46%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,961,857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,834,159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상한가
+ 7,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,748,420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.77%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,447,597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+7.55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,435,113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+0.05%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,385,306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1.08%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,110,546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 5,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.99%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,874,441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-2.29%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,831,038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,803,978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 1,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1.35%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,754,089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WOORI 반도체밸류체인액티브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+0.08%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,740,575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,608,603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 2,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-6.60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,587,193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,548,770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경인전자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상한가
+ 6,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+30.00%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,542,759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.19%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,529,610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,990</x:t>
   </x:si>
   <x:si>
     <x:t>-0.55%</x:t>
   </x:si>
   <x:si>
-    <x:t>1,161,039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비올</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=335890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,117,134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지앤비에스 에코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=382800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.29%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,117,026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비츠로테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=042370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-3.02%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,091,432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네이처셀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=007390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.94%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,066,358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엠에스오토텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=123040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+4.59%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,059,823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시지트로닉스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=429270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+1.79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,055,209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘씨엔에스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=252990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+0.84%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,038,925</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지니틱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=303030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,035,964</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원익</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=032940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,033,033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AP시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=265520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29,050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+10.25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,020,210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴마시스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=205470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,879</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.21%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,019,750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=136480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,320</x:t>
+    <x:t>1,507,374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 2,450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+4.99%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,503,422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIGER 은행고배당플러스TOP10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.31%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,466,310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+2.79%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,443,521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.52%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,340,653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KODEX 미국S&amp;P500TR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,327,434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIGER 미국배당+7%프리미엄다우존스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 15</x:t>
   </x:si>
   <x:si>
     <x:t>-0.15%</x:t>
   </x:si>
   <x:si>
-    <x:t>1,008,026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테크윙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=089030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+3.90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>962,008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제이엔케이글로벌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=126880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>939,057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>와이바이오로직스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=338840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-17.03%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>929,225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디케이티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=290550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+2.80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>915,455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=250060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+4.60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855,348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래티어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://finance.naver.com/item/main.naver?code=367000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>852,155</x:t>
+    <x:t>1,274,279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,268,100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 7,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4.44%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,131,605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상승
+ 1,750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+7.73%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,105,508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신한지주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,075,681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하락
+ 370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,057,099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12600</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -8491,8 +7704,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:F101"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I11" sqref="I11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <x:selection activeCell="L16" sqref="L16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8503,7 +7716,7 @@
     <x:col min="4" max="6" width="16.710938" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -8523,7 +7736,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -8543,7 +7756,7 @@
         <x:v>602</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -8563,7 +7776,7 @@
         <x:v>603</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -8583,7 +7796,7 @@
         <x:v>606</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -8603,7 +7816,7 @@
         <x:v>607</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -8623,7 +7836,7 @@
         <x:v>610</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
@@ -8643,7 +7856,7 @@
         <x:v>613</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -8663,7 +7876,7 @@
         <x:v>616</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
@@ -8683,7 +7896,7 @@
         <x:v>619</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -8703,7 +7916,7 @@
         <x:v>622</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -8723,7 +7936,7 @@
         <x:v>625</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
@@ -8743,7 +7956,7 @@
         <x:v>628</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
@@ -8763,7 +7976,7 @@
         <x:v>631</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -8783,7 +7996,7 @@
         <x:v>634</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -8803,7 +8016,7 @@
         <x:v>637</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
@@ -8823,7 +8036,7 @@
         <x:v>639</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
@@ -8843,7 +8056,7 @@
         <x:v>642</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -8863,7 +8076,7 @@
         <x:v>644</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -8883,7 +8096,7 @@
         <x:v>647</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
@@ -8903,7 +8116,7 @@
         <x:v>650</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
@@ -8923,7 +8136,7 @@
         <x:v>653</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
@@ -8943,7 +8156,7 @@
         <x:v>656</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
@@ -8963,7 +8176,7 @@
         <x:v>659</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
@@ -8983,7 +8196,7 @@
         <x:v>661</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
@@ -9003,7 +8216,7 @@
         <x:v>662</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -9023,7 +8236,7 @@
         <x:v>663</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
@@ -9043,7 +8256,7 @@
         <x:v>664</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
@@ -9063,7 +8276,7 @@
         <x:v>666</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
@@ -9083,7 +8296,7 @@
         <x:v>669</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
@@ -9103,7 +8316,7 @@
         <x:v>672</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
@@ -9123,7 +8336,7 @@
         <x:v>675</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
@@ -9143,7 +8356,7 @@
         <x:v>678</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -9163,7 +8376,7 @@
         <x:v>680</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -9183,7 +8396,7 @@
         <x:v>683</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -9203,7 +8416,7 @@
         <x:v>684</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -9223,7 +8436,7 @@
         <x:v>687</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -9243,7 +8456,7 @@
         <x:v>688</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -9263,7 +8476,7 @@
         <x:v>691</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -9283,7 +8496,7 @@
         <x:v>694</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -9303,7 +8516,7 @@
         <x:v>697</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -9323,7 +8536,7 @@
         <x:v>700</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -9343,7 +8556,7 @@
         <x:v>702</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -9363,7 +8576,7 @@
         <x:v>705</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -9383,7 +8596,7 @@
         <x:v>708</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -9403,7 +8616,7 @@
         <x:v>711</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -9423,7 +8636,7 @@
         <x:v>712</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -9443,7 +8656,7 @@
         <x:v>715</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -9463,7 +8676,7 @@
         <x:v>718</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -9483,7 +8696,7 @@
         <x:v>720</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -9503,7 +8716,7 @@
         <x:v>722</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -9523,7 +8736,7 @@
         <x:v>725</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A52" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -9543,7 +8756,7 @@
         <x:v>728</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A53" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -9563,7 +8776,7 @@
         <x:v>729</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A54" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -9583,7 +8796,7 @@
         <x:v>732</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A55" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -9603,7 +8816,7 @@
         <x:v>735</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A56" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -9623,7 +8836,7 @@
         <x:v>738</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A57" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -9643,7 +8856,7 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A58" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -9663,7 +8876,7 @@
         <x:v>741</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A59" s="0" t="s">
         <x:v>348</x:v>
       </x:c>
@@ -9683,7 +8896,7 @@
         <x:v>744</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A60" s="0" t="s">
         <x:v>354</x:v>
       </x:c>
@@ -9703,7 +8916,7 @@
         <x:v>747</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A61" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -9723,7 +8936,7 @@
         <x:v>750</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A62" s="0" t="s">
         <x:v>365</x:v>
       </x:c>
@@ -9743,7 +8956,7 @@
         <x:v>753</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A63" s="0" t="s">
         <x:v>371</x:v>
       </x:c>
@@ -9763,7 +8976,7 @@
         <x:v>756</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A64" s="0" t="s">
         <x:v>377</x:v>
       </x:c>
@@ -9783,7 +8996,7 @@
         <x:v>759</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A65" s="0" t="s">
         <x:v>383</x:v>
       </x:c>
@@ -9803,7 +9016,7 @@
         <x:v>761</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A66" s="0" t="s">
         <x:v>389</x:v>
       </x:c>
@@ -9823,7 +9036,7 @@
         <x:v>764</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A67" s="0" t="s">
         <x:v>395</x:v>
       </x:c>
@@ -9843,7 +9056,7 @@
         <x:v>767</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A68" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
@@ -9863,7 +9076,7 @@
         <x:v>770</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A69" s="0" t="s">
         <x:v>407</x:v>
       </x:c>
@@ -9883,7 +9096,7 @@
         <x:v>772</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A70" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
@@ -9903,7 +9116,7 @@
         <x:v>774</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A71" s="0" t="s">
         <x:v>419</x:v>
       </x:c>
@@ -9923,7 +9136,7 @@
         <x:v>777</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A72" s="0" t="s">
         <x:v>425</x:v>
       </x:c>
@@ -9943,7 +9156,7 @@
         <x:v>780</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A73" s="0" t="s">
         <x:v>431</x:v>
       </x:c>
@@ -9963,7 +9176,7 @@
         <x:v>782</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A74" s="0" t="s">
         <x:v>437</x:v>
       </x:c>
@@ -9983,7 +9196,7 @@
         <x:v>784</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A75" s="0" t="s">
         <x:v>443</x:v>
       </x:c>
@@ -10003,7 +9216,7 @@
         <x:v>787</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A76" s="0" t="s">
         <x:v>448</x:v>
       </x:c>
@@ -10023,7 +9236,7 @@
         <x:v>790</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A77" s="0" t="s">
         <x:v>454</x:v>
       </x:c>
@@ -10043,7 +9256,7 @@
         <x:v>793</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A78" s="0" t="s">
         <x:v>460</x:v>
       </x:c>
@@ -10063,7 +9276,7 @@
         <x:v>795</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A79" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -10083,7 +9296,7 @@
         <x:v>798</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A80" s="0" t="s">
         <x:v>471</x:v>
       </x:c>
@@ -10103,7 +9316,7 @@
         <x:v>799</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A81" s="0" t="s">
         <x:v>477</x:v>
       </x:c>
@@ -10123,7 +9336,7 @@
         <x:v>802</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A82" s="0" t="s">
         <x:v>483</x:v>
       </x:c>
@@ -10143,7 +9356,7 @@
         <x:v>805</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A83" s="0" t="s">
         <x:v>489</x:v>
       </x:c>
@@ -10163,7 +9376,7 @@
         <x:v>808</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A84" s="0" t="s">
         <x:v>495</x:v>
       </x:c>
@@ -10183,7 +9396,7 @@
         <x:v>809</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A85" s="0" t="s">
         <x:v>501</x:v>
       </x:c>
@@ -10203,7 +9416,7 @@
         <x:v>812</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A86" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
@@ -10223,7 +9436,7 @@
         <x:v>815</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A87" s="0" t="s">
         <x:v>511</x:v>
       </x:c>
@@ -10243,7 +9456,7 @@
         <x:v>818</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A88" s="0" t="s">
         <x:v>517</x:v>
       </x:c>
@@ -10263,7 +9476,7 @@
         <x:v>821</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A89" s="0" t="s">
         <x:v>523</x:v>
       </x:c>
@@ -10283,7 +9496,7 @@
         <x:v>824</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A90" s="0" t="s">
         <x:v>529</x:v>
       </x:c>
@@ -10303,7 +9516,7 @@
         <x:v>829</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A91" s="0" t="s">
         <x:v>535</x:v>
       </x:c>
@@ -10323,7 +9536,7 @@
         <x:v>830</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A92" s="0" t="s">
         <x:v>541</x:v>
       </x:c>
@@ -10343,7 +9556,7 @@
         <x:v>835</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A93" s="0" t="s">
         <x:v>547</x:v>
       </x:c>
@@ -10363,7 +9576,7 @@
         <x:v>838</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A94" s="0" t="s">
         <x:v>553</x:v>
       </x:c>
@@ -10383,7 +9596,7 @@
         <x:v>840</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A95" s="0" t="s">
         <x:v>559</x:v>
       </x:c>
@@ -10403,7 +9616,7 @@
         <x:v>842</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A96" s="0" t="s">
         <x:v>565</x:v>
       </x:c>
@@ -10423,7 +9636,7 @@
         <x:v>847</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A97" s="0" t="s">
         <x:v>571</x:v>
       </x:c>
@@ -10443,7 +9656,7 @@
         <x:v>850</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A98" s="0" t="s">
         <x:v>577</x:v>
       </x:c>
@@ -10463,7 +9676,7 @@
         <x:v>851</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A99" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -10483,7 +9696,7 @@
         <x:v>853</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A100" s="0" t="s">
         <x:v>588</x:v>
       </x:c>
@@ -10503,7 +9716,7 @@
         <x:v>856</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A101" s="0" t="s">
         <x:v>594</x:v>
       </x:c>
@@ -10538,7 +9751,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F101"/>
+  <x:dimension ref="A1:F46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -10546,2022 +9759,922 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>861</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>860</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>865</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>866</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>868</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>869</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>870</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>871</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>875</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>876</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>880</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>880</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>882</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>883</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>884</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>886</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>887</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>888</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>889</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>890</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>891</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>892</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>893</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>894</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>894</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>895</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>896</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>897</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>786</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>898</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>899</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>900</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>901</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>902</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>903</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>903</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>904</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>905</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>906</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>907</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>908</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>907</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>909</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>910</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>911</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>912</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>913</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>912</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
         <x:v>914</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>915</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>916</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>917</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>918</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>916</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>919</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>920</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>921</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>922</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>923</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>924</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>925</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>926</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>927</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>925</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>929</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>930</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>931</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>932</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>934</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>935</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>936</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>937</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>938</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>941</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>942</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>943</x:v>
+        <x:v>938</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>944</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>948</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>949</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>950</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>951</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>953</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>958</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>959</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>962</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>954</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>973</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>979</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>981</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>982</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>986</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>988</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>990</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>991</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>981</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>996</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>997</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>999</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>1000</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>1001</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>1005</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>1008</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>1010</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>1012</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>1013</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>1015</x:v>
+        <x:v>1004</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>1016</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>1019</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>1022</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>1025</x:v>
+        <x:v>1012</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>1030</x:v>
+        <x:v>1017</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>1031</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>1034</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1023</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>1039</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>1041</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>1042</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>1044</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>1056</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>1058</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>1059</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>1060</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>1061</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>1062</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>1063</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>1064</x:v>
+        <x:v>1053</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>1067</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>1068</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>1069</x:v>
+        <x:v>1058</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>1072</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1062</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1076</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>1078</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>1079</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:6">
-      <x:c r="A47" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>1080</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>1081</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>1082</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>1083</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>1084</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:6">
-      <x:c r="A48" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>1085</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>1086</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>1087</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>1088</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="s">
-        <x:v>1089</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:6">
-      <x:c r="A49" s="0" t="s">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>1090</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>1091</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>1092</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>1093</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>1094</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:6">
-      <x:c r="A50" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>1095</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>1096</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>1097</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>1098</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:6">
-      <x:c r="A51" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>1099</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>1100</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>520</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="s">
-        <x:v>1101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:6">
-      <x:c r="A52" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>1102</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>1103</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>1104</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s">
-        <x:v>1105</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="s">
-        <x:v>1106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:6">
-      <x:c r="A53" s="0" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>1107</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>1108</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>1109</x:v>
-      </x:c>
-      <x:c r="E53" s="0" t="s">
-        <x:v>1110</x:v>
-      </x:c>
-      <x:c r="F53" s="0" t="s">
-        <x:v>1111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:6">
-      <x:c r="A54" s="0" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>1112</x:v>
-      </x:c>
-      <x:c r="C54" s="0" t="s">
-        <x:v>1113</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>1114</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="s">
-        <x:v>1115</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="s">
-        <x:v>1116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:6">
-      <x:c r="A55" s="0" t="s">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>1117</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>1118</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>1119</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s">
-        <x:v>1120</x:v>
-      </x:c>
-      <x:c r="F55" s="0" t="s">
-        <x:v>1121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:6">
-      <x:c r="A56" s="0" t="s">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>1122</x:v>
-      </x:c>
-      <x:c r="C56" s="0" t="s">
-        <x:v>1123</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>1124</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s">
-        <x:v>1125</x:v>
-      </x:c>
-      <x:c r="F56" s="0" t="s">
-        <x:v>1126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:6">
-      <x:c r="A57" s="0" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>1127</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>1128</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>1129</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s">
-        <x:v>1130</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>1131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:6">
-      <x:c r="A58" s="0" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="B58" s="0" t="s">
-        <x:v>1132</x:v>
-      </x:c>
-      <x:c r="C58" s="0" t="s">
-        <x:v>1133</x:v>
-      </x:c>
-      <x:c r="D58" s="0" t="s">
-        <x:v>1134</x:v>
-      </x:c>
-      <x:c r="E58" s="0" t="s">
-        <x:v>1135</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>1136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:6">
-      <x:c r="A59" s="0" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="B59" s="0" t="s">
-        <x:v>1137</x:v>
-      </x:c>
-      <x:c r="C59" s="0" t="s">
-        <x:v>1138</x:v>
-      </x:c>
-      <x:c r="D59" s="0" t="s">
-        <x:v>1139</x:v>
-      </x:c>
-      <x:c r="E59" s="0" t="s">
-        <x:v>820</x:v>
-      </x:c>
-      <x:c r="F59" s="0" t="s">
-        <x:v>1140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:6">
-      <x:c r="A60" s="0" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>1141</x:v>
-      </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>1142</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s">
-        <x:v>1078</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>1144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:6">
-      <x:c r="A61" s="0" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="B61" s="0" t="s">
-        <x:v>1145</x:v>
-      </x:c>
-      <x:c r="C61" s="0" t="s">
-        <x:v>1146</x:v>
-      </x:c>
-      <x:c r="D61" s="0" t="s">
-        <x:v>1147</x:v>
-      </x:c>
-      <x:c r="E61" s="0" t="s">
-        <x:v>1148</x:v>
-      </x:c>
-      <x:c r="F61" s="0" t="s">
-        <x:v>1149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:6">
-      <x:c r="A62" s="0" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>1150</x:v>
-      </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>1151</x:v>
-      </x:c>
-      <x:c r="D62" s="0" t="s">
-        <x:v>1152</x:v>
-      </x:c>
-      <x:c r="E62" s="0" t="s">
-        <x:v>1153</x:v>
-      </x:c>
-      <x:c r="F62" s="0" t="s">
-        <x:v>1154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:6">
-      <x:c r="A63" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="B63" s="0" t="s">
-        <x:v>1155</x:v>
-      </x:c>
-      <x:c r="C63" s="0" t="s">
-        <x:v>1156</x:v>
-      </x:c>
-      <x:c r="D63" s="0" t="s">
-        <x:v>1157</x:v>
-      </x:c>
-      <x:c r="E63" s="0" t="s">
-        <x:v>1158</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="s">
-        <x:v>1159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:6">
-      <x:c r="A64" s="0" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="B64" s="0" t="s">
-        <x:v>1160</x:v>
-      </x:c>
-      <x:c r="C64" s="0" t="s">
-        <x:v>1161</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>1162</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="s">
-        <x:v>1163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:6">
-      <x:c r="A65" s="0" t="s">
-        <x:v>383</x:v>
-      </x:c>
-      <x:c r="B65" s="0" t="s">
-        <x:v>1164</x:v>
-      </x:c>
-      <x:c r="C65" s="0" t="s">
-        <x:v>1165</x:v>
-      </x:c>
-      <x:c r="D65" s="0" t="s">
-        <x:v>1166</x:v>
-      </x:c>
-      <x:c r="E65" s="0" t="s">
-        <x:v>1167</x:v>
-      </x:c>
-      <x:c r="F65" s="0" t="s">
-        <x:v>1168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:6">
-      <x:c r="A66" s="0" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="B66" s="0" t="s">
-        <x:v>1169</x:v>
-      </x:c>
-      <x:c r="C66" s="0" t="s">
-        <x:v>1170</x:v>
-      </x:c>
-      <x:c r="D66" s="0" t="s">
-        <x:v>1171</x:v>
-      </x:c>
-      <x:c r="E66" s="0" t="s">
-        <x:v>1172</x:v>
-      </x:c>
-      <x:c r="F66" s="0" t="s">
-        <x:v>1173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:6">
-      <x:c r="A67" s="0" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="B67" s="0" t="s">
-        <x:v>1174</x:v>
-      </x:c>
-      <x:c r="C67" s="0" t="s">
-        <x:v>1175</x:v>
-      </x:c>
-      <x:c r="D67" s="0" t="s">
-        <x:v>1176</x:v>
-      </x:c>
-      <x:c r="E67" s="0" t="s">
-        <x:v>1177</x:v>
-      </x:c>
-      <x:c r="F67" s="0" t="s">
-        <x:v>1178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:6">
-      <x:c r="A68" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>1179</x:v>
-      </x:c>
-      <x:c r="C68" s="0" t="s">
-        <x:v>1180</x:v>
-      </x:c>
-      <x:c r="D68" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E68" s="0" t="s">
-        <x:v>1181</x:v>
-      </x:c>
-      <x:c r="F68" s="0" t="s">
-        <x:v>1182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:6">
-      <x:c r="A69" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="B69" s="0" t="s">
-        <x:v>1183</x:v>
-      </x:c>
-      <x:c r="C69" s="0" t="s">
-        <x:v>1184</x:v>
-      </x:c>
-      <x:c r="D69" s="0" t="s">
-        <x:v>1185</x:v>
-      </x:c>
-      <x:c r="E69" s="0" t="s">
-        <x:v>521</x:v>
-      </x:c>
-      <x:c r="F69" s="0" t="s">
-        <x:v>1186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:6">
-      <x:c r="A70" s="0" t="s">
-        <x:v>413</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>1187</x:v>
-      </x:c>
-      <x:c r="C70" s="0" t="s">
-        <x:v>1188</x:v>
-      </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>1189</x:v>
-      </x:c>
-      <x:c r="E70" s="0" t="s">
-        <x:v>1190</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="s">
-        <x:v>1191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:6">
-      <x:c r="A71" s="0" t="s">
-        <x:v>419</x:v>
-      </x:c>
-      <x:c r="B71" s="0" t="s">
-        <x:v>1192</x:v>
-      </x:c>
-      <x:c r="C71" s="0" t="s">
-        <x:v>1193</x:v>
-      </x:c>
-      <x:c r="D71" s="0" t="s">
-        <x:v>1194</x:v>
-      </x:c>
-      <x:c r="E71" s="0" t="s">
-        <x:v>1195</x:v>
-      </x:c>
-      <x:c r="F71" s="0" t="s">
-        <x:v>1196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:6">
-      <x:c r="A72" s="0" t="s">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="B72" s="0" t="s">
-        <x:v>1197</x:v>
-      </x:c>
-      <x:c r="C72" s="0" t="s">
-        <x:v>1198</x:v>
-      </x:c>
-      <x:c r="D72" s="0" t="s">
-        <x:v>1199</x:v>
-      </x:c>
-      <x:c r="E72" s="0" t="s">
-        <x:v>1200</x:v>
-      </x:c>
-      <x:c r="F72" s="0" t="s">
-        <x:v>1201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:6">
-      <x:c r="A73" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="s">
-        <x:v>1202</x:v>
-      </x:c>
-      <x:c r="C73" s="0" t="s">
-        <x:v>1203</x:v>
-      </x:c>
-      <x:c r="D73" s="0" t="s">
-        <x:v>1204</x:v>
-      </x:c>
-      <x:c r="E73" s="0" t="s">
-        <x:v>1205</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="s">
-        <x:v>1206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:6">
-      <x:c r="A74" s="0" t="s">
-        <x:v>437</x:v>
-      </x:c>
-      <x:c r="B74" s="0" t="s">
-        <x:v>1207</x:v>
-      </x:c>
-      <x:c r="C74" s="0" t="s">
-        <x:v>1208</x:v>
-      </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>1209</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="s">
-        <x:v>1211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:6">
-      <x:c r="A75" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="s">
-        <x:v>1212</x:v>
-      </x:c>
-      <x:c r="C75" s="0" t="s">
-        <x:v>1213</x:v>
-      </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>1214</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>1215</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="s">
-        <x:v>1216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:6">
-      <x:c r="A76" s="0" t="s">
-        <x:v>448</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>1217</x:v>
-      </x:c>
-      <x:c r="C76" s="0" t="s">
-        <x:v>1218</x:v>
-      </x:c>
-      <x:c r="D76" s="0" t="s">
-        <x:v>1219</x:v>
-      </x:c>
-      <x:c r="E76" s="0" t="s">
-        <x:v>1220</x:v>
-      </x:c>
-      <x:c r="F76" s="0" t="s">
-        <x:v>1221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:6">
-      <x:c r="A77" s="0" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>1222</x:v>
-      </x:c>
-      <x:c r="C77" s="0" t="s">
-        <x:v>1223</x:v>
-      </x:c>
-      <x:c r="D77" s="0" t="s">
-        <x:v>1224</x:v>
-      </x:c>
-      <x:c r="E77" s="0" t="s">
-        <x:v>1225</x:v>
-      </x:c>
-      <x:c r="F77" s="0" t="s">
-        <x:v>1226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:6">
-      <x:c r="A78" s="0" t="s">
-        <x:v>460</x:v>
-      </x:c>
-      <x:c r="B78" s="0" t="s">
-        <x:v>1227</x:v>
-      </x:c>
-      <x:c r="C78" s="0" t="s">
-        <x:v>1228</x:v>
-      </x:c>
-      <x:c r="D78" s="0" t="s">
-        <x:v>1229</x:v>
-      </x:c>
-      <x:c r="E78" s="0" t="s">
-        <x:v>1004</x:v>
-      </x:c>
-      <x:c r="F78" s="0" t="s">
-        <x:v>1230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:6">
-      <x:c r="A79" s="0" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>1231</x:v>
-      </x:c>
-      <x:c r="C79" s="0" t="s">
-        <x:v>1232</x:v>
-      </x:c>
-      <x:c r="D79" s="0" t="s">
-        <x:v>1233</x:v>
-      </x:c>
-      <x:c r="E79" s="0" t="s">
-        <x:v>1234</x:v>
-      </x:c>
-      <x:c r="F79" s="0" t="s">
-        <x:v>1235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:6">
-      <x:c r="A80" s="0" t="s">
-        <x:v>471</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="s">
-        <x:v>1236</x:v>
-      </x:c>
-      <x:c r="C80" s="0" t="s">
-        <x:v>1237</x:v>
-      </x:c>
-      <x:c r="D80" s="0" t="s">
-        <x:v>1238</x:v>
-      </x:c>
-      <x:c r="E80" s="0" t="s">
-        <x:v>1239</x:v>
-      </x:c>
-      <x:c r="F80" s="0" t="s">
-        <x:v>1240</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:6">
-      <x:c r="A81" s="0" t="s">
-        <x:v>477</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>1241</x:v>
-      </x:c>
-      <x:c r="C81" s="0" t="s">
-        <x:v>1242</x:v>
-      </x:c>
-      <x:c r="D81" s="0" t="s">
-        <x:v>1243</x:v>
-      </x:c>
-      <x:c r="E81" s="0" t="s">
-        <x:v>1244</x:v>
-      </x:c>
-      <x:c r="F81" s="0" t="s">
-        <x:v>1245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:6">
-      <x:c r="A82" s="0" t="s">
-        <x:v>483</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>1246</x:v>
-      </x:c>
-      <x:c r="C82" s="0" t="s">
-        <x:v>1247</x:v>
-      </x:c>
-      <x:c r="D82" s="0" t="s">
-        <x:v>1248</x:v>
-      </x:c>
-      <x:c r="E82" s="0" t="s">
-        <x:v>1249</x:v>
-      </x:c>
-      <x:c r="F82" s="0" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:6">
-      <x:c r="A83" s="0" t="s">
-        <x:v>489</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>1251</x:v>
-      </x:c>
-      <x:c r="C83" s="0" t="s">
-        <x:v>1252</x:v>
-      </x:c>
-      <x:c r="D83" s="0" t="s">
-        <x:v>1253</x:v>
-      </x:c>
-      <x:c r="E83" s="0" t="s">
-        <x:v>1254</x:v>
-      </x:c>
-      <x:c r="F83" s="0" t="s">
-        <x:v>1255</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:6">
-      <x:c r="A84" s="0" t="s">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>1256</x:v>
-      </x:c>
-      <x:c r="C84" s="0" t="s">
-        <x:v>1257</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>1258</x:v>
-      </x:c>
-      <x:c r="E84" s="0" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="F84" s="0" t="s">
-        <x:v>1259</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:6">
-      <x:c r="A85" s="0" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>1260</x:v>
-      </x:c>
-      <x:c r="C85" s="0" t="s">
-        <x:v>1261</x:v>
-      </x:c>
-      <x:c r="D85" s="0" t="s">
-        <x:v>1262</x:v>
-      </x:c>
-      <x:c r="E85" s="0" t="s">
-        <x:v>1263</x:v>
-      </x:c>
-      <x:c r="F85" s="0" t="s">
-        <x:v>1264</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:6">
-      <x:c r="A86" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>1265</x:v>
-      </x:c>
-      <x:c r="C86" s="0" t="s">
-        <x:v>1266</x:v>
-      </x:c>
-      <x:c r="D86" s="0" t="s">
-        <x:v>1267</x:v>
-      </x:c>
-      <x:c r="E86" s="0" t="s">
-        <x:v>1268</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="s">
-        <x:v>1269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:6">
-      <x:c r="A87" s="0" t="s">
-        <x:v>511</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>1270</x:v>
-      </x:c>
-      <x:c r="C87" s="0" t="s">
-        <x:v>1271</x:v>
-      </x:c>
-      <x:c r="D87" s="0" t="s">
-        <x:v>1272</x:v>
-      </x:c>
-      <x:c r="E87" s="0" t="s">
-        <x:v>1273</x:v>
-      </x:c>
-      <x:c r="F87" s="0" t="s">
-        <x:v>1274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:6">
-      <x:c r="A88" s="0" t="s">
-        <x:v>517</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>1275</x:v>
-      </x:c>
-      <x:c r="C88" s="0" t="s">
-        <x:v>1276</x:v>
-      </x:c>
-      <x:c r="D88" s="0" t="s">
-        <x:v>1277</x:v>
-      </x:c>
-      <x:c r="E88" s="0" t="s">
-        <x:v>1278</x:v>
-      </x:c>
-      <x:c r="F88" s="0" t="s">
-        <x:v>1279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:6">
-      <x:c r="A89" s="0" t="s">
-        <x:v>523</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>1280</x:v>
-      </x:c>
-      <x:c r="C89" s="0" t="s">
-        <x:v>1281</x:v>
-      </x:c>
-      <x:c r="D89" s="0" t="s">
-        <x:v>1282</x:v>
-      </x:c>
-      <x:c r="E89" s="0" t="s">
-        <x:v>1283</x:v>
-      </x:c>
-      <x:c r="F89" s="0" t="s">
-        <x:v>1284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:6">
-      <x:c r="A90" s="0" t="s">
-        <x:v>529</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>1285</x:v>
-      </x:c>
-      <x:c r="C90" s="0" t="s">
-        <x:v>1286</x:v>
-      </x:c>
-      <x:c r="D90" s="0" t="s">
-        <x:v>1287</x:v>
-      </x:c>
-      <x:c r="E90" s="0" t="s">
-        <x:v>1288</x:v>
-      </x:c>
-      <x:c r="F90" s="0" t="s">
-        <x:v>1289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:6">
-      <x:c r="A91" s="0" t="s">
-        <x:v>535</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>1290</x:v>
-      </x:c>
-      <x:c r="C91" s="0" t="s">
-        <x:v>1291</x:v>
-      </x:c>
-      <x:c r="D91" s="0" t="s">
-        <x:v>1292</x:v>
-      </x:c>
-      <x:c r="E91" s="0" t="s">
-        <x:v>1293</x:v>
-      </x:c>
-      <x:c r="F91" s="0" t="s">
-        <x:v>1294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:6">
-      <x:c r="A92" s="0" t="s">
-        <x:v>541</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>1295</x:v>
-      </x:c>
-      <x:c r="C92" s="0" t="s">
-        <x:v>1296</x:v>
-      </x:c>
-      <x:c r="D92" s="0" t="s">
-        <x:v>1297</x:v>
-      </x:c>
-      <x:c r="E92" s="0" t="s">
-        <x:v>1200</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>1298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:6">
-      <x:c r="A93" s="0" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>1299</x:v>
-      </x:c>
-      <x:c r="C93" s="0" t="s">
-        <x:v>1300</x:v>
-      </x:c>
-      <x:c r="D93" s="0" t="s">
-        <x:v>1301</x:v>
-      </x:c>
-      <x:c r="E93" s="0" t="s">
-        <x:v>1302</x:v>
-      </x:c>
-      <x:c r="F93" s="0" t="s">
-        <x:v>1303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:6">
-      <x:c r="A94" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>1304</x:v>
-      </x:c>
-      <x:c r="C94" s="0" t="s">
-        <x:v>1305</x:v>
-      </x:c>
-      <x:c r="D94" s="0" t="s">
-        <x:v>1306</x:v>
-      </x:c>
-      <x:c r="E94" s="0" t="s">
-        <x:v>1307</x:v>
-      </x:c>
-      <x:c r="F94" s="0" t="s">
-        <x:v>1308</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:6">
-      <x:c r="A95" s="0" t="s">
-        <x:v>559</x:v>
-      </x:c>
-      <x:c r="B95" s="0" t="s">
-        <x:v>1309</x:v>
-      </x:c>
-      <x:c r="C95" s="0" t="s">
-        <x:v>1310</x:v>
-      </x:c>
-      <x:c r="D95" s="0" t="s">
-        <x:v>1311</x:v>
-      </x:c>
-      <x:c r="E95" s="0" t="s">
-        <x:v>1312</x:v>
-      </x:c>
-      <x:c r="F95" s="0" t="s">
-        <x:v>1313</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:6">
-      <x:c r="A96" s="0" t="s">
-        <x:v>565</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>1314</x:v>
-      </x:c>
-      <x:c r="C96" s="0" t="s">
-        <x:v>1315</x:v>
-      </x:c>
-      <x:c r="D96" s="0" t="s">
-        <x:v>1316</x:v>
-      </x:c>
-      <x:c r="E96" s="0" t="s">
-        <x:v>1317</x:v>
-      </x:c>
-      <x:c r="F96" s="0" t="s">
-        <x:v>1318</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:6">
-      <x:c r="A97" s="0" t="s">
-        <x:v>571</x:v>
-      </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>1319</x:v>
-      </x:c>
-      <x:c r="C97" s="0" t="s">
-        <x:v>1320</x:v>
-      </x:c>
-      <x:c r="D97" s="0" t="s">
-        <x:v>1321</x:v>
-      </x:c>
-      <x:c r="E97" s="0" t="s">
-        <x:v>677</x:v>
-      </x:c>
-      <x:c r="F97" s="0" t="s">
-        <x:v>1322</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:6">
-      <x:c r="A98" s="0" t="s">
-        <x:v>577</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>1323</x:v>
-      </x:c>
-      <x:c r="C98" s="0" t="s">
-        <x:v>1324</x:v>
-      </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>1325</x:v>
-      </x:c>
-      <x:c r="E98" s="0" t="s">
-        <x:v>1326</x:v>
-      </x:c>
-      <x:c r="F98" s="0" t="s">
-        <x:v>1327</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:6">
-      <x:c r="A99" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>1328</x:v>
-      </x:c>
-      <x:c r="C99" s="0" t="s">
-        <x:v>1329</x:v>
-      </x:c>
-      <x:c r="D99" s="0" t="s">
-        <x:v>1330</x:v>
-      </x:c>
-      <x:c r="E99" s="0" t="s">
-        <x:v>1331</x:v>
-      </x:c>
-      <x:c r="F99" s="0" t="s">
-        <x:v>1332</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:6">
-      <x:c r="A100" s="0" t="s">
-        <x:v>588</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>1333</x:v>
-      </x:c>
-      <x:c r="C100" s="0" t="s">
-        <x:v>1334</x:v>
-      </x:c>
-      <x:c r="D100" s="0" t="s">
-        <x:v>1335</x:v>
-      </x:c>
-      <x:c r="E100" s="0" t="s">
-        <x:v>1336</x:v>
-      </x:c>
-      <x:c r="F100" s="0" t="s">
-        <x:v>1337</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:6">
-      <x:c r="A101" s="0" t="s">
-        <x:v>594</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>1338</x:v>
-      </x:c>
-      <x:c r="C101" s="0" t="s">
-        <x:v>1339</x:v>
-      </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>1340</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F101" s="0" t="s">
-        <x:v>1341</x:v>
+        <x:v>1066</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
